--- a/IEDC_LookupTable_fill/users_data.xlsx
+++ b/IEDC_LookupTable_fill/users_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>2050-06-09 12:00:00</t>
+  </si>
+  <si>
+    <t>thpereira</t>
+  </si>
+  <si>
+    <t>Thibaud Pereira</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>thibaud.pereira@yale.edu</t>
+  </si>
+  <si>
+    <t>mbisch</t>
+  </si>
+  <si>
+    <t>Moritz Bisch</t>
+  </si>
+  <si>
+    <t>uni@moritzbisch.de</t>
+  </si>
+  <si>
+    <t>2018-07-31 12:00:00</t>
   </si>
 </sst>
 </file>
@@ -163,7 +187,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -468,16 +492,16 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -539,7 +563,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -566,7 +590,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -593,7 +617,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -620,40 +644,62 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -665,10 +711,8 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -680,10 +724,8 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -695,10 +737,8 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -710,10 +750,8 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -725,10 +763,8 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -740,10 +776,8 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -755,10 +789,8 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -770,10 +802,8 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -785,10 +815,8 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -800,10 +828,8 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -815,10 +841,8 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -830,10 +854,8 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -845,7 +867,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>

--- a/IEDC_LookupTable_fill/users_data.xlsx
+++ b/IEDC_LookupTable_fill/users_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -52,9 +52,6 @@
     <t>IEF</t>
   </si>
   <si>
-    <t>stefan.pauliuk@indecol.uni-freiburg.de</t>
-  </si>
-  <si>
     <t>nheeren</t>
   </si>
   <si>
@@ -64,27 +61,18 @@
     <t>ETH/Yale</t>
   </si>
   <si>
-    <t>niko.heeren@yale.edu</t>
-  </si>
-  <si>
     <t>mhasan</t>
   </si>
   <si>
     <t>Mahadi Hasan</t>
   </si>
   <si>
-    <t>mahadihasan.cse@gmail.com</t>
-  </si>
-  <si>
     <t>raryap</t>
   </si>
   <si>
     <t>Rio Aryapratama</t>
   </si>
   <si>
-    <t>rio.aryapratama@indecol.uni-freiburg.de</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -106,16 +94,10 @@
     <t>Yale</t>
   </si>
   <si>
-    <t>thibaud.pereira@yale.edu</t>
-  </si>
-  <si>
     <t>mbisch</t>
   </si>
   <si>
     <t>Moritz Bisch</t>
-  </si>
-  <si>
-    <t>uni@moritzbisch.de</t>
   </si>
   <si>
     <t>2018-07-31 12:00:00</t>
@@ -187,7 +169,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -492,16 +474,17 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,10 +504,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -536,7 +519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -549,156 +532,143 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="7"/>
       <c r="G2" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="7"/>
       <c r="G3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="7"/>
       <c r="G6" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -711,7 +681,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -724,7 +694,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -737,7 +707,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -750,7 +720,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -763,7 +733,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -776,7 +746,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -789,7 +759,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -802,7 +772,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -815,7 +785,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -828,7 +798,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -841,7 +811,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -854,7 +824,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -867,7 +837,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>

--- a/IEDC_LookupTable_fill/users_data.xlsx
+++ b/IEDC_LookupTable_fill/users_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>2018-07-31 12:00:00</t>
+  </si>
+  <si>
+    <t>pvollmer</t>
+  </si>
+  <si>
+    <t>Paula Vollmer</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -474,17 +480,17 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -544,7 +550,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -569,7 +575,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -594,7 +600,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -619,7 +625,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -644,7 +650,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -668,20 +674,32 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -694,7 +712,7 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -707,7 +725,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -720,7 +738,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -733,7 +751,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -746,7 +764,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -759,7 +777,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -772,7 +790,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -785,7 +803,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -798,7 +816,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -811,7 +829,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -824,7 +842,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -837,7 +855,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
